--- a/files/students.xlsx
+++ b/files/students.xlsx
@@ -5,7 +5,9 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$L$26</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -698,6 +700,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L26" displayName="Table1" name="Table1" id="1">
+  <autoFilter ref="$A$1:$L$26">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn name="name" id="1"/>
     <tableColumn name="surname" id="2"/>
@@ -1044,7 +1053,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="9" t="s">
         <v>76</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="9" t="s">
         <v>113</v>
       </c>

--- a/files/students.xlsx
+++ b/files/students.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -354,24 +354,6 @@
     <t>denise.zucchini@studenti.unipd.it</t>
   </si>
   <si>
-    <t>Luiz Henrique</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
-    <t>santana.lhc@gmail.com</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Medical Sciences College, Santa Casa de Sao Paulo</t>
-  </si>
-  <si>
-    <t>Not that I know about</t>
-  </si>
-  <si>
     <t>Raquel</t>
   </si>
   <si>
@@ -382,6 +364,15 @@
   </si>
   <si>
     <t>Department of Physics and Astronomy</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Manildo</t>
+  </si>
+  <si>
+    <t>paolo.manildo@studenti.unipd.it</t>
   </si>
 </sst>
 </file>
@@ -583,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -636,7 +627,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -700,13 +697,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L26" displayName="Table1" name="Table1" id="1">
-  <autoFilter ref="$A$1:$L$26">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$L$26"/>
   <tableColumns count="12">
     <tableColumn name="name" id="1"/>
     <tableColumn name="surname" id="2"/>
@@ -1053,7 +1044,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1123,7 +1114,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1187,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1269,7 +1260,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1336,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1450,7 +1441,7 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="9" t="s">
         <v>76</v>
       </c>
@@ -1625,7 +1616,7 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -1803,7 +1794,7 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="9" t="s">
         <v>113</v>
       </c>
@@ -1814,26 +1805,23 @@
         <v>115</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="K25" s="10">
         <v>1.0</v>
       </c>
@@ -1843,36 +1831,35 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>122</v>
+      <c r="F26" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="18">
+        <v>39</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="20">
         <v>5.0</v>
       </c>
     </row>
